--- a/dataset/data.xlsx
+++ b/dataset/data.xlsx
@@ -5,14 +5,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="train" sheetId="1" r:id="rId4"/>
+    <sheet name="training" sheetId="1" r:id="rId4"/>
     <sheet name="test" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t>entry</t>
   </si>
@@ -816,7 +816,7 @@
     <t>O=C1[C@@H]2CCC(N3CCOCC3)[C@H]1CCC2</t>
   </si>
   <si>
-    <t>O=C1C[C@H]2CC[C@H](C2)C1</t>
+    <t>O=C1C[C@@H](C2)CC[C@@H]2C1</t>
   </si>
   <si>
     <t>O=C1C[C@H]2CC[C@@H](C1)N2C#N</t>
@@ -856,6 +856,9 @@
     <t>O=C1[C@@H](C2)C[C@@H]3C[C@H]1CC2(C(C)(C)C)C3</t>
   </si>
   <si>
+    <t>Used UFF calculations, instead of MMFF calculations.</t>
+  </si>
+  <si>
     <t>O=C1[C@@H](C2)C[C@@H]3C[C@H]1CC2(c4ccccc4)C3</t>
   </si>
   <si>
@@ -980,6 +983,12 @@
     <t>Citation url</t>
   </si>
   <si>
+    <t>CITATION</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>cyclohexanone</t>
   </si>
   <si>
@@ -1064,9 +1073,6 @@
     <t>Perlberger, Jean Claude, and Paul Mueller. "A model for the transition state of the reduction of aliphatic ketones by sodium borohydride." Journal of the American Chemical Society 99.19 (1977): 6316-6319.</t>
   </si>
   <si>
-    <t>O=C1C[C@@H](C2)CC[C@@H]2C1</t>
-  </si>
-  <si>
     <t>O=C1[13C@@H]2CCC[C@H]1CC2</t>
   </si>
   <si>
@@ -1159,6 +1165,9 @@
   </si>
   <si>
     <t>syn</t>
+  </si>
+  <si>
+    <t>Deleted one of the two calculated conformations with imaginary vivbrations.</t>
   </si>
   <si>
     <t>O=C1C[C@H]2[C@H](COC)[C@H](COC)[C@@H]1CC2</t>
@@ -1715,7 +1724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2062,6 +2071,30 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
@@ -2108,7 +2141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2334,8 +2367,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -2358,16 +2400,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15680,11 +15722,11 @@
         <v>178</v>
       </c>
       <c r="D186" t="s" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E186" s="12">
         <f>IF(C186=D186,1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F186" t="b" s="12">
         <f>IF(NOT(ISBLANK(G186)),1/(1/G186^$E186+1)*100)</f>
@@ -15693,7 +15735,7 @@
       <c r="G186" s="13"/>
       <c r="H186" s="12">
         <f>IF(NOT(ISBLANK(I186)),1/(1/I186^$E186+1)*100)</f>
-        <v>69.96996996996999</v>
+        <v>30.030030030030</v>
       </c>
       <c r="I186" s="12">
         <v>2.33</v>
@@ -15705,7 +15747,7 @@
       <c r="K186" s="13"/>
       <c r="L186" s="12">
         <f>IF(NOT(ISBLANK(M186)),1/(1/M186^$E186+1)*100)</f>
-        <v>83.0508474576271</v>
+        <v>16.9491525423729</v>
       </c>
       <c r="M186" s="12">
         <v>4.9</v>
@@ -16187,14 +16229,16 @@
       <c r="V193" s="12">
         <v>273</v>
       </c>
-      <c r="W193" s="13"/>
+      <c r="W193" t="s" s="11">
+        <v>229</v>
+      </c>
     </row>
     <row r="194" ht="15.35" customHeight="1">
       <c r="A194" s="10">
         <v>193</v>
       </c>
       <c r="B194" t="s" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C194" t="s" s="11">
         <v>24</v>
@@ -16260,7 +16304,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C195" t="s" s="11">
         <v>24</v>
@@ -16328,7 +16372,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C196" t="s" s="11">
         <v>24</v>
@@ -16392,7 +16436,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C197" t="s" s="11">
         <v>24</v>
@@ -16456,7 +16500,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C198" t="s" s="11">
         <v>25</v>
@@ -16520,7 +16564,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C199" t="s" s="11">
         <v>24</v>
@@ -16586,7 +16630,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C200" t="s" s="11">
         <v>24</v>
@@ -16644,7 +16688,7 @@
         <v>273</v>
       </c>
       <c r="W200" t="s" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" ht="15.35" customHeight="1">
@@ -16652,7 +16696,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s" s="25">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C201" t="s" s="19">
         <v>177</v>
@@ -16710,7 +16754,7 @@
         <v>273</v>
       </c>
       <c r="W201" t="s" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" ht="15.35" customHeight="1">
@@ -16718,7 +16762,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C202" t="s" s="11">
         <v>177</v>
@@ -16914,7 +16958,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C205" t="s" s="11">
         <v>177</v>
@@ -16978,7 +17022,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s" s="19">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C206" t="s" s="11">
         <v>177</v>
@@ -17036,7 +17080,7 @@
         <v>273</v>
       </c>
       <c r="W206" t="s" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" ht="15.35" customHeight="1">
@@ -17044,7 +17088,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C207" t="s" s="11">
         <v>25</v>
@@ -17108,7 +17152,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C208" t="s" s="11">
         <v>178</v>
@@ -17172,7 +17216,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C209" t="s" s="11">
         <v>178</v>
@@ -17238,7 +17282,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s" s="11">
         <v>178</v>
@@ -17302,7 +17346,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C211" t="s" s="11">
         <v>178</v>
@@ -17366,7 +17410,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C212" t="s" s="11">
         <v>178</v>
@@ -17434,7 +17478,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C213" t="s" s="11">
         <v>24</v>
@@ -17500,7 +17544,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C214" t="s" s="11">
         <v>25</v>
@@ -17564,7 +17608,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C215" t="s" s="11">
         <v>24</v>
@@ -17628,7 +17672,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s" s="11">
         <v>24</v>
@@ -17692,7 +17736,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C217" t="s" s="11">
         <v>25</v>
@@ -17756,7 +17800,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C218" t="s" s="11">
         <v>25</v>
@@ -17820,7 +17864,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C219" t="s" s="11">
         <v>25</v>
@@ -17884,7 +17928,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C220" t="s" s="11">
         <v>25</v>
@@ -17948,7 +17992,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C221" t="s" s="11">
         <v>24</v>
@@ -18014,7 +18058,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C222" t="s" s="11">
         <v>24</v>
@@ -18080,7 +18124,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s" s="14">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C223" t="s" s="14">
         <v>177</v>
@@ -18148,7 +18192,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C224" t="s" s="11">
         <v>25</v>
@@ -18233,7 +18277,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -18246,8 +18290,8 @@
     <col min="5" max="5" width="7.85156" style="26" customWidth="1"/>
     <col min="6" max="9" width="7" style="26" customWidth="1"/>
     <col min="10" max="13" width="7.85156" style="26" customWidth="1"/>
-    <col min="14" max="15" width="16.3516" style="26" customWidth="1"/>
-    <col min="16" max="16384" width="16.3516" style="26" customWidth="1"/>
+    <col min="14" max="16" width="16.3516" style="26" customWidth="1"/>
+    <col min="17" max="16384" width="16.3516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -18255,31 +18299,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s" s="27">
         <v>1</v>
       </c>
       <c r="D1" t="s" s="27">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G1" t="s" s="3">
         <v>7</v>
       </c>
       <c r="H1" t="s" s="3">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I1" t="s" s="3">
         <v>9</v>
       </c>
       <c r="J1" t="s" s="3">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K1" t="s" s="3">
         <v>13</v>
@@ -18291,25 +18335,30 @@
         <v>21</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O1" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>267</v>
+      </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="30">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s" s="31">
         <v>52</v>
       </c>
       <c r="D2" t="s" s="32">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -18327,11 +18376,12 @@
         <v>273</v>
       </c>
       <c r="N2" t="s" s="40">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O2" t="s" s="40">
-        <v>269</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" s="29">
@@ -18342,10 +18392,10 @@
         <v>39</v>
       </c>
       <c r="D3" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -18363,9 +18413,10 @@
         <v>273</v>
       </c>
       <c r="N3" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" s="29">
@@ -18373,13 +18424,13 @@
       </c>
       <c r="B4" s="40"/>
       <c r="C4" t="s" s="40">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -18397,9 +18448,10 @@
         <v>273</v>
       </c>
       <c r="N4" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" s="29">
@@ -18407,13 +18459,13 @@
       </c>
       <c r="B5" s="40"/>
       <c r="C5" t="s" s="42">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -18431,9 +18483,10 @@
         <v>273</v>
       </c>
       <c r="N5" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" s="29">
@@ -18444,10 +18497,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -18465,9 +18518,10 @@
         <v>273</v>
       </c>
       <c r="N6" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" s="29">
@@ -18475,13 +18529,13 @@
       </c>
       <c r="B7" s="40"/>
       <c r="C7" t="s" s="44">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -18499,9 +18553,10 @@
         <v>273</v>
       </c>
       <c r="N7" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" s="29">
@@ -18509,13 +18564,13 @@
       </c>
       <c r="B8" s="40"/>
       <c r="C8" t="s" s="42">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -18533,9 +18588,10 @@
         <v>273</v>
       </c>
       <c r="N8" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" s="29">
@@ -18546,10 +18602,10 @@
         <v>35</v>
       </c>
       <c r="D9" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -18567,9 +18623,10 @@
         <v>273</v>
       </c>
       <c r="N9" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" s="29">
@@ -18577,13 +18634,13 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" t="s" s="43">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -18601,9 +18658,10 @@
         <v>273</v>
       </c>
       <c r="N10" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" s="29">
@@ -18611,13 +18669,13 @@
       </c>
       <c r="B11" s="40"/>
       <c r="C11" t="s" s="44">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -18635,9 +18693,10 @@
         <v>273</v>
       </c>
       <c r="N11" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" s="29">
@@ -18648,10 +18707,10 @@
         <v>154</v>
       </c>
       <c r="D12" t="s" s="32">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -18669,9 +18728,10 @@
         <v>273</v>
       </c>
       <c r="N12" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" s="29">
@@ -18682,10 +18742,10 @@
         <v>155</v>
       </c>
       <c r="D13" t="s" s="32">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E13" t="s" s="40">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -18703,9 +18763,10 @@
         <v>273</v>
       </c>
       <c r="N13" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" s="29">
@@ -18716,10 +18777,10 @@
         <v>40</v>
       </c>
       <c r="D14" t="s" s="41">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -18737,9 +18798,10 @@
         <v>273</v>
       </c>
       <c r="N14" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" s="29">
@@ -18747,13 +18809,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" t="s" s="33">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s" s="47">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E15" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -18771,27 +18833,28 @@
         <v>355</v>
       </c>
       <c r="N15" t="s" s="40">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O15" t="s" s="40">
-        <v>280</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16" t="s" s="40">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s" s="33">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s" s="50">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s" s="33">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -18809,11 +18872,12 @@
         <v>273</v>
       </c>
       <c r="N16" t="s" s="33">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O16" t="s" s="33">
-        <v>284</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="P16" s="33"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" s="29">
@@ -18821,7 +18885,7 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" t="s" s="33">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s" s="50">
         <v>177</v>
@@ -18845,9 +18909,10 @@
         <v>298</v>
       </c>
       <c r="N17" t="s" s="33">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" s="29">
@@ -18855,13 +18920,13 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" t="s" s="33">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D18" t="s" s="50">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E18" t="s" s="33">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -18880,9 +18945,10 @@
         <v>298</v>
       </c>
       <c r="N18" t="s" s="33">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" s="29">
@@ -18890,7 +18956,7 @@
       </c>
       <c r="B19" s="40"/>
       <c r="C19" t="s" s="33">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D19" t="s" s="51">
         <v>177</v>
@@ -18914,25 +18980,26 @@
         <v>298</v>
       </c>
       <c r="N19" t="s" s="33">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" s="29">
         <v>19</v>
       </c>
       <c r="B20" t="s" s="40">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s" s="40">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s" s="52">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s" s="40">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -18950,11 +19017,12 @@
         <v>273</v>
       </c>
       <c r="N20" t="s" s="40">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O20" t="s" s="40">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="P20" s="40"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" s="29">
@@ -18962,13 +19030,13 @@
       </c>
       <c r="B21" s="40"/>
       <c r="C21" t="s" s="40">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D21" t="s" s="53">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s" s="40">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -18986,25 +19054,26 @@
         <v>273</v>
       </c>
       <c r="N21" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" s="29">
         <v>21</v>
       </c>
       <c r="B22" t="s" s="40">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s" s="56">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F22" s="35">
         <v>79</v>
@@ -19032,11 +19101,12 @@
         <v>273</v>
       </c>
       <c r="N22" t="s" s="40">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O22" t="s" s="40">
-        <v>298</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" s="29">
@@ -19044,13 +19114,13 @@
       </c>
       <c r="B23" s="59"/>
       <c r="C23" t="s" s="56">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E23" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -19073,9 +19143,10 @@
         <v>273</v>
       </c>
       <c r="N23" t="s" s="61">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" s="29">
@@ -19083,13 +19154,13 @@
       </c>
       <c r="B24" s="59"/>
       <c r="C24" t="s" s="56">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s" s="42">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E24" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F24" s="35">
         <v>55</v>
@@ -19107,9 +19178,10 @@
         <v>273</v>
       </c>
       <c r="N24" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" s="29">
@@ -19117,13 +19189,13 @@
       </c>
       <c r="B25" s="59"/>
       <c r="C25" t="s" s="56">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s" s="67">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s" s="59">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F25" s="68">
         <v>75</v>
@@ -19151,9 +19223,10 @@
         <v>273</v>
       </c>
       <c r="N25" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" s="29">
@@ -19161,13 +19234,13 @@
       </c>
       <c r="B26" s="59"/>
       <c r="C26" t="s" s="56">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D26" t="s" s="67">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E26" t="s" s="59">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
@@ -19185,9 +19258,10 @@
         <v>273</v>
       </c>
       <c r="N26" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" s="29">
@@ -19195,13 +19269,13 @@
       </c>
       <c r="B27" s="59"/>
       <c r="C27" t="s" s="56">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s" s="70">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E27" t="s" s="59">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="69"/>
@@ -19219,9 +19293,10 @@
         <v>273</v>
       </c>
       <c r="N27" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" s="29">
@@ -19229,13 +19304,13 @@
       </c>
       <c r="B28" s="59"/>
       <c r="C28" t="s" s="56">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D28" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E28" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="35">
@@ -19260,9 +19335,10 @@
         <v>273</v>
       </c>
       <c r="N28" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" s="29">
@@ -19270,13 +19346,13 @@
       </c>
       <c r="B29" s="59"/>
       <c r="C29" t="s" s="56">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E29" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -19299,9 +19375,10 @@
         <v>273</v>
       </c>
       <c r="N29" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" s="29">
@@ -19309,13 +19386,13 @@
       </c>
       <c r="B30" s="59"/>
       <c r="C30" t="s" s="56">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D30" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E30" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -19338,9 +19415,10 @@
         <v>273</v>
       </c>
       <c r="N30" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" s="29">
@@ -19348,13 +19426,13 @@
       </c>
       <c r="B31" s="59"/>
       <c r="C31" t="s" s="56">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D31" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E31" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -19372,9 +19450,10 @@
         <v>273</v>
       </c>
       <c r="N31" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" s="29">
@@ -19382,13 +19461,13 @@
       </c>
       <c r="B32" s="59"/>
       <c r="C32" t="s" s="56">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D32" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -19406,9 +19485,10 @@
         <v>273</v>
       </c>
       <c r="N32" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" s="29">
@@ -19416,13 +19496,13 @@
       </c>
       <c r="B33" s="59"/>
       <c r="C33" t="s" s="56">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D33" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -19440,9 +19520,10 @@
         <v>273</v>
       </c>
       <c r="N33" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" s="29">
@@ -19450,13 +19531,13 @@
       </c>
       <c r="B34" s="59"/>
       <c r="C34" t="s" s="72">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D34" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E34" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -19479,25 +19560,26 @@
         <v>273</v>
       </c>
       <c r="N34" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" s="29">
         <v>34</v>
       </c>
       <c r="B35" t="s" s="59">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s" s="59">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D35" t="s" s="73">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E35" t="s" s="59">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
@@ -19520,9 +19602,12 @@
         <v>273</v>
       </c>
       <c r="N35" t="s" s="65">
-        <v>270</v>
-      </c>
-      <c r="O35" s="66"/>
+        <v>273</v>
+      </c>
+      <c r="O35" s="71"/>
+      <c r="P35" t="s" s="65">
+        <v>314</v>
+      </c>
     </row>
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" s="29">
@@ -19530,13 +19615,13 @@
       </c>
       <c r="B36" s="59"/>
       <c r="C36" t="s" s="59">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D36" t="s" s="67">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E36" t="s" s="59">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
@@ -19554,9 +19639,10 @@
         <v>273</v>
       </c>
       <c r="N36" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O36" s="66"/>
+      <c r="P36" s="75"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" s="29">
@@ -19564,13 +19650,13 @@
       </c>
       <c r="B37" s="59"/>
       <c r="C37" t="s" s="59">
+        <v>316</v>
+      </c>
+      <c r="D37" t="s" s="67">
+        <v>298</v>
+      </c>
+      <c r="E37" t="s" s="59">
         <v>313</v>
-      </c>
-      <c r="D37" t="s" s="67">
-        <v>296</v>
-      </c>
-      <c r="E37" t="s" s="59">
-        <v>311</v>
       </c>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
@@ -19582,7 +19668,7 @@
         <v>50</v>
       </c>
       <c r="J37" s="69"/>
-      <c r="K37" s="75">
+      <c r="K37" s="76">
         <v>54</v>
       </c>
       <c r="L37" s="13"/>
@@ -19590,9 +19676,12 @@
         <v>273</v>
       </c>
       <c r="N37" t="s" s="65">
-        <v>270</v>
-      </c>
-      <c r="O37" s="66"/>
+        <v>273</v>
+      </c>
+      <c r="O37" s="77"/>
+      <c r="P37" t="s" s="11">
+        <v>229</v>
+      </c>
     </row>
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" s="29">
@@ -19600,13 +19689,13 @@
       </c>
       <c r="B38" s="59"/>
       <c r="C38" t="s" s="59">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D38" t="s" s="67">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s" s="59">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
@@ -19624,9 +19713,10 @@
         <v>273</v>
       </c>
       <c r="N38" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O38" s="66"/>
+      <c r="P38" s="78"/>
     </row>
     <row r="39" ht="15.35" customHeight="1">
       <c r="A39" s="29">
@@ -19634,13 +19724,13 @@
       </c>
       <c r="B39" s="59"/>
       <c r="C39" t="s" s="59">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s" s="67">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E39" t="s" s="59">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -19658,25 +19748,26 @@
         <v>273</v>
       </c>
       <c r="N39" t="s" s="65">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
     </row>
     <row r="40" ht="15.35" customHeight="1">
       <c r="A40" s="29">
         <v>39</v>
       </c>
       <c r="B40" t="s" s="59">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C40" t="s" s="59">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D40" t="s" s="67">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E40" t="s" s="59">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -19694,11 +19785,12 @@
         <v>273</v>
       </c>
       <c r="N40" t="s" s="65">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s" s="65">
-        <v>320</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="P40" s="65"/>
     </row>
     <row r="41" ht="15.35" customHeight="1">
       <c r="A41" s="29">
@@ -19706,13 +19798,13 @@
       </c>
       <c r="B41" s="59"/>
       <c r="C41" t="s" s="59">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s" s="67">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E41" t="s" s="59">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
@@ -19729,26 +19821,27 @@
       <c r="M41" s="58">
         <v>273</v>
       </c>
-      <c r="N41" t="s" s="76">
-        <v>270</v>
-      </c>
-      <c r="O41" s="77"/>
+      <c r="N41" t="s" s="79">
+        <v>273</v>
+      </c>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
     </row>
     <row r="42" ht="15.35" customHeight="1">
       <c r="A42" s="29">
         <v>41</v>
       </c>
       <c r="B42" t="s" s="40">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C42" t="s" s="40">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D42" t="s" s="43">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E42" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F42" s="35">
         <f>4.2/(4.2+27.3)*100</f>
@@ -19758,7 +19851,7 @@
         <f>IF(D42=E42,F42,100-F42)</f>
         <v>13.3333333333333</v>
       </c>
-      <c r="H42" s="78"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="69"/>
       <c r="J42" s="35">
         <f>29.1*100/(3.8+29.1)</f>
@@ -19773,11 +19866,12 @@
         <v>273</v>
       </c>
       <c r="N42" t="s" s="40">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s" s="40">
-        <v>325</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" ht="15.35" customHeight="1">
       <c r="A43" s="29">
@@ -19785,13 +19879,13 @@
       </c>
       <c r="B43" s="40"/>
       <c r="C43" t="s" s="40">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D43" t="s" s="43">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E43" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F43" s="35">
         <v>71</v>
@@ -19814,25 +19908,26 @@
         <v>273</v>
       </c>
       <c r="N43" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" ht="15.35" customHeight="1">
       <c r="A44" s="29">
         <v>43</v>
       </c>
       <c r="B44" t="s" s="40">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s" s="40">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D44" t="s" s="44">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E44" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -19850,11 +19945,12 @@
         <v>273</v>
       </c>
       <c r="N44" t="s" s="40">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s" s="40">
-        <v>330</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="P44" s="40"/>
     </row>
     <row r="45" ht="15.35" customHeight="1">
       <c r="A45" s="29">
@@ -19862,13 +19958,13 @@
       </c>
       <c r="B45" s="40"/>
       <c r="C45" t="s" s="40">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E45" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -19886,9 +19982,10 @@
         <v>273</v>
       </c>
       <c r="N45" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
     </row>
     <row r="46" ht="15.35" customHeight="1">
       <c r="A46" s="29">
@@ -19896,13 +19993,13 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" t="s" s="40">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D46" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E46" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -19920,9 +20017,10 @@
         <v>273</v>
       </c>
       <c r="N46" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" ht="15.35" customHeight="1">
       <c r="A47" s="29">
@@ -19930,13 +20028,13 @@
       </c>
       <c r="B47" s="40"/>
       <c r="C47" t="s" s="40">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -19954,9 +20052,10 @@
         <v>273</v>
       </c>
       <c r="N47" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" ht="15.35" customHeight="1">
       <c r="A48" s="29">
@@ -19964,13 +20063,13 @@
       </c>
       <c r="B48" s="40"/>
       <c r="C48" t="s" s="40">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D48" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E48" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -19988,9 +20087,10 @@
         <v>273</v>
       </c>
       <c r="N48" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
     </row>
     <row r="49" ht="15.35" customHeight="1">
       <c r="A49" s="29">
@@ -19998,13 +20098,13 @@
       </c>
       <c r="B49" s="40"/>
       <c r="C49" t="s" s="40">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D49" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -20022,9 +20122,10 @@
         <v>273</v>
       </c>
       <c r="N49" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
     </row>
     <row r="50" ht="15.35" customHeight="1">
       <c r="A50" s="29">
@@ -20032,13 +20133,13 @@
       </c>
       <c r="B50" s="40"/>
       <c r="C50" t="s" s="40">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D50" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E50" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -20056,9 +20157,10 @@
         <v>273</v>
       </c>
       <c r="N50" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
     </row>
     <row r="51" ht="15.35" customHeight="1">
       <c r="A51" s="29">
@@ -20066,13 +20168,13 @@
       </c>
       <c r="B51" s="40"/>
       <c r="C51" t="s" s="40">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D51" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -20090,9 +20192,10 @@
         <v>273</v>
       </c>
       <c r="N51" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
     </row>
     <row r="52" ht="15.35" customHeight="1">
       <c r="A52" s="29">
@@ -20100,13 +20203,13 @@
       </c>
       <c r="B52" s="40"/>
       <c r="C52" t="s" s="40">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D52" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E52" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -20124,9 +20227,10 @@
         <v>273</v>
       </c>
       <c r="N52" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
     </row>
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" s="29">
@@ -20134,13 +20238,13 @@
       </c>
       <c r="B53" s="40"/>
       <c r="C53" t="s" s="40">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E53" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -20158,9 +20262,10 @@
         <v>273</v>
       </c>
       <c r="N53" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
     </row>
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" s="29">
@@ -20168,13 +20273,13 @@
       </c>
       <c r="B54" s="40"/>
       <c r="C54" t="s" s="40">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D54" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E54" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -20192,9 +20297,10 @@
         <v>273</v>
       </c>
       <c r="N54" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
     </row>
     <row r="55" ht="15.35" customHeight="1">
       <c r="A55" s="29">
@@ -20202,13 +20308,13 @@
       </c>
       <c r="B55" s="40"/>
       <c r="C55" t="s" s="40">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E55" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -20226,9 +20332,10 @@
         <v>273</v>
       </c>
       <c r="N55" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
     </row>
     <row r="56" ht="15.35" customHeight="1">
       <c r="A56" s="29">
@@ -20236,19 +20343,19 @@
       </c>
       <c r="B56" s="40"/>
       <c r="C56" t="s" s="40">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D56" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E56" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="64"/>
-      <c r="J56" s="79">
+      <c r="J56" s="82">
         <v>34</v>
       </c>
       <c r="K56" s="36">
@@ -20260,9 +20367,10 @@
         <v>273</v>
       </c>
       <c r="N56" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
     </row>
     <row r="57" ht="15.35" customHeight="1">
       <c r="A57" s="29">
@@ -20270,13 +20378,13 @@
       </c>
       <c r="B57" s="40"/>
       <c r="C57" t="s" s="40">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D57" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -20294,9 +20402,10 @@
         <v>273</v>
       </c>
       <c r="N57" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
     </row>
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" s="29">
@@ -20304,13 +20413,13 @@
       </c>
       <c r="B58" s="40"/>
       <c r="C58" t="s" s="40">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D58" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E58" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -20328,9 +20437,10 @@
         <v>273</v>
       </c>
       <c r="N58" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
     </row>
     <row r="59" ht="15.35" customHeight="1">
       <c r="A59" s="29">
@@ -20338,13 +20448,13 @@
       </c>
       <c r="B59" s="40"/>
       <c r="C59" t="s" s="40">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E59" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -20362,9 +20472,10 @@
         <v>273</v>
       </c>
       <c r="N59" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
     </row>
     <row r="60" ht="15.35" customHeight="1">
       <c r="A60" s="29">
@@ -20372,13 +20483,13 @@
       </c>
       <c r="B60" s="40"/>
       <c r="C60" t="s" s="40">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -20396,28 +20507,29 @@
         <v>273</v>
       </c>
       <c r="N60" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" ht="15.35" customHeight="1">
       <c r="A61" s="29">
         <v>60</v>
       </c>
       <c r="B61" t="s" s="40">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C61" t="s" s="40">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D61" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E61" t="s" s="40">
-        <v>278</v>
-      </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
+        <v>281</v>
+      </c>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
       <c r="H61" s="57">
         <v>90</v>
       </c>
@@ -20432,9 +20544,10 @@
         <v>273</v>
       </c>
       <c r="N61" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
     </row>
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" s="29">
@@ -20442,13 +20555,13 @@
       </c>
       <c r="B62" s="40"/>
       <c r="C62" t="s" s="40">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D62" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E62" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F62" s="71"/>
       <c r="G62" s="71"/>
@@ -20466,9 +20579,10 @@
         <v>273</v>
       </c>
       <c r="N62" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
     </row>
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" s="29">
@@ -20476,13 +20590,13 @@
       </c>
       <c r="B63" s="40"/>
       <c r="C63" t="s" s="40">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D63" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E63" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F63" s="71"/>
       <c r="G63" s="71"/>
@@ -20500,9 +20614,10 @@
         <v>273</v>
       </c>
       <c r="N63" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
     </row>
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" s="29">
@@ -20510,13 +20625,13 @@
       </c>
       <c r="B64" s="40"/>
       <c r="C64" t="s" s="40">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D64" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F64" s="71"/>
       <c r="G64" s="71"/>
@@ -20534,9 +20649,10 @@
         <v>273</v>
       </c>
       <c r="N64" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
     </row>
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" s="29">
@@ -20544,17 +20660,17 @@
       </c>
       <c r="B65" s="40"/>
       <c r="C65" t="s" s="42">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E65" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F65" s="63"/>
       <c r="G65" s="63"/>
-      <c r="H65" s="80">
+      <c r="H65" s="83">
         <v>67</v>
       </c>
       <c r="I65" s="35">
@@ -20568,25 +20684,26 @@
         <v>273</v>
       </c>
       <c r="N65" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
     </row>
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" s="29">
         <v>65</v>
       </c>
       <c r="B66" t="s" s="30">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C66" t="s" s="11">
-        <v>354</v>
-      </c>
-      <c r="D66" t="s" s="81">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="D66" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E66" t="s" s="40">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -20609,9 +20726,10 @@
         <v>273</v>
       </c>
       <c r="N66" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
     </row>
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" s="29">
@@ -20621,11 +20739,11 @@
       <c r="C67" t="s" s="11">
         <v>228</v>
       </c>
-      <c r="D67" t="s" s="81">
-        <v>355</v>
+      <c r="D67" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E67" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -20648,9 +20766,10 @@
         <v>273</v>
       </c>
       <c r="N67" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
     </row>
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" s="29">
@@ -20658,13 +20777,13 @@
       </c>
       <c r="B68" s="30"/>
       <c r="C68" t="s" s="11">
-        <v>229</v>
-      </c>
-      <c r="D68" t="s" s="81">
-        <v>355</v>
+        <v>230</v>
+      </c>
+      <c r="D68" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E68" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
@@ -20687,9 +20806,10 @@
         <v>273</v>
       </c>
       <c r="N68" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
     </row>
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" s="29">
@@ -20697,13 +20817,13 @@
       </c>
       <c r="B69" s="30"/>
       <c r="C69" t="s" s="11">
-        <v>232</v>
-      </c>
-      <c r="D69" t="s" s="81">
-        <v>355</v>
+        <v>233</v>
+      </c>
+      <c r="D69" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E69" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
@@ -20726,9 +20846,10 @@
         <v>273</v>
       </c>
       <c r="N69" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
     </row>
     <row r="70" ht="15.35" customHeight="1">
       <c r="A70" s="29">
@@ -20736,13 +20857,13 @@
       </c>
       <c r="B70" s="30"/>
       <c r="C70" t="s" s="11">
-        <v>356</v>
-      </c>
-      <c r="D70" t="s" s="81">
-        <v>355</v>
+        <v>359</v>
+      </c>
+      <c r="D70" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E70" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -20765,23 +20886,24 @@
         <v>273</v>
       </c>
       <c r="N70" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
     </row>
     <row r="71" ht="15.35" customHeight="1">
       <c r="A71" s="29">
         <v>70</v>
       </c>
-      <c r="B71" s="82"/>
+      <c r="B71" s="85"/>
       <c r="C71" t="s" s="11">
-        <v>357</v>
-      </c>
-      <c r="D71" t="s" s="81">
-        <v>355</v>
+        <v>360</v>
+      </c>
+      <c r="D71" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E71" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -20799,9 +20921,10 @@
         <v>273</v>
       </c>
       <c r="N71" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
     </row>
     <row r="72" ht="15.35" customHeight="1">
       <c r="A72" s="29">
@@ -20809,13 +20932,13 @@
       </c>
       <c r="B72" s="30"/>
       <c r="C72" t="s" s="11">
+        <v>361</v>
+      </c>
+      <c r="D72" t="s" s="84">
         <v>358</v>
       </c>
-      <c r="D72" t="s" s="81">
-        <v>355</v>
-      </c>
       <c r="E72" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -20838,9 +20961,10 @@
         <v>273</v>
       </c>
       <c r="N72" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
     </row>
     <row r="73" ht="15.35" customHeight="1">
       <c r="A73" s="29">
@@ -20848,13 +20972,13 @@
       </c>
       <c r="B73" s="30"/>
       <c r="C73" t="s" s="11">
-        <v>359</v>
-      </c>
-      <c r="D73" t="s" s="81">
-        <v>355</v>
+        <v>362</v>
+      </c>
+      <c r="D73" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E73" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -20877,9 +21001,10 @@
         <v>273</v>
       </c>
       <c r="N73" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
     </row>
     <row r="74" ht="15.35" customHeight="1">
       <c r="A74" s="29">
@@ -20887,13 +21012,13 @@
       </c>
       <c r="B74" s="30"/>
       <c r="C74" t="s" s="11">
-        <v>360</v>
-      </c>
-      <c r="D74" t="s" s="81">
-        <v>355</v>
+        <v>363</v>
+      </c>
+      <c r="D74" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E74" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -20916,9 +21041,10 @@
         <v>273</v>
       </c>
       <c r="N74" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
     </row>
     <row r="75" ht="15.35" customHeight="1">
       <c r="A75" s="29">
@@ -20926,13 +21052,13 @@
       </c>
       <c r="B75" s="30"/>
       <c r="C75" t="s" s="11">
-        <v>361</v>
-      </c>
-      <c r="D75" t="s" s="81">
-        <v>355</v>
+        <v>364</v>
+      </c>
+      <c r="D75" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E75" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -20950,9 +21076,10 @@
         <v>273</v>
       </c>
       <c r="N75" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
     </row>
     <row r="76" ht="15.35" customHeight="1">
       <c r="A76" s="29">
@@ -20960,13 +21087,13 @@
       </c>
       <c r="B76" s="30"/>
       <c r="C76" t="s" s="11">
-        <v>362</v>
-      </c>
-      <c r="D76" t="s" s="81">
-        <v>296</v>
+        <v>365</v>
+      </c>
+      <c r="D76" t="s" s="84">
+        <v>298</v>
       </c>
       <c r="E76" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -20989,25 +21116,26 @@
         <v>273</v>
       </c>
       <c r="N76" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
     </row>
     <row r="77" ht="15.35" customHeight="1">
       <c r="A77" s="29">
         <v>76</v>
       </c>
       <c r="B77" t="s" s="30">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C77" t="s" s="11">
-        <v>364</v>
-      </c>
-      <c r="D77" t="s" s="81">
-        <v>296</v>
+        <v>367</v>
+      </c>
+      <c r="D77" t="s" s="84">
+        <v>298</v>
       </c>
       <c r="E77" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
@@ -21030,9 +21158,10 @@
         <v>273</v>
       </c>
       <c r="N77" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
     </row>
     <row r="78" ht="15.35" customHeight="1">
       <c r="A78" s="29">
@@ -21040,13 +21169,13 @@
       </c>
       <c r="B78" s="30"/>
       <c r="C78" t="s" s="11">
-        <v>365</v>
-      </c>
-      <c r="D78" t="s" s="81">
-        <v>296</v>
+        <v>368</v>
+      </c>
+      <c r="D78" t="s" s="84">
+        <v>298</v>
       </c>
       <c r="E78" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
@@ -21069,9 +21198,10 @@
         <v>273</v>
       </c>
       <c r="N78" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
     </row>
     <row r="79" ht="15.35" customHeight="1">
       <c r="A79" s="29">
@@ -21079,13 +21209,13 @@
       </c>
       <c r="B79" s="30"/>
       <c r="C79" t="s" s="11">
-        <v>366</v>
-      </c>
-      <c r="D79" t="s" s="81">
-        <v>355</v>
+        <v>369</v>
+      </c>
+      <c r="D79" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E79" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
@@ -21108,9 +21238,10 @@
         <v>273</v>
       </c>
       <c r="N79" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
     </row>
     <row r="80" ht="15.35" customHeight="1">
       <c r="A80" s="29">
@@ -21118,13 +21249,13 @@
       </c>
       <c r="B80" s="30"/>
       <c r="C80" t="s" s="11">
-        <v>367</v>
-      </c>
-      <c r="D80" t="s" s="81">
-        <v>355</v>
+        <v>370</v>
+      </c>
+      <c r="D80" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E80" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
@@ -21147,9 +21278,10 @@
         <v>273</v>
       </c>
       <c r="N80" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
     </row>
     <row r="81" ht="15.35" customHeight="1">
       <c r="A81" s="29">
@@ -21157,13 +21289,13 @@
       </c>
       <c r="B81" s="30"/>
       <c r="C81" t="s" s="11">
-        <v>368</v>
-      </c>
-      <c r="D81" t="s" s="81">
-        <v>355</v>
+        <v>371</v>
+      </c>
+      <c r="D81" t="s" s="84">
+        <v>358</v>
       </c>
       <c r="E81" t="s" s="40">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -21186,9 +21318,10 @@
         <v>273</v>
       </c>
       <c r="N81" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" ht="15.35" customHeight="1">
       <c r="A82" s="29">
@@ -21196,13 +21329,13 @@
       </c>
       <c r="B82" s="30"/>
       <c r="C82" t="s" s="11">
-        <v>369</v>
-      </c>
-      <c r="D82" t="s" s="81">
-        <v>296</v>
+        <v>372</v>
+      </c>
+      <c r="D82" t="s" s="84">
+        <v>298</v>
       </c>
       <c r="E82" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -21213,16 +21346,17 @@
         <f>IF(D82=E82,H82,100-H82)</f>
         <v>99</v>
       </c>
-      <c r="J82" s="78"/>
+      <c r="J82" s="81"/>
       <c r="K82" s="64"/>
       <c r="L82" s="13"/>
       <c r="M82" s="58">
         <v>273</v>
       </c>
       <c r="N82" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
     </row>
     <row r="83" ht="15.35" customHeight="1">
       <c r="A83" s="29">
@@ -21230,13 +21364,13 @@
       </c>
       <c r="B83" s="30"/>
       <c r="C83" t="s" s="11">
-        <v>370</v>
-      </c>
-      <c r="D83" t="s" s="81">
-        <v>296</v>
+        <v>373</v>
+      </c>
+      <c r="D83" t="s" s="84">
+        <v>298</v>
       </c>
       <c r="E83" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -21254,9 +21388,10 @@
         <v>273</v>
       </c>
       <c r="N83" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
     </row>
     <row r="84" ht="15.35" customHeight="1">
       <c r="A84" s="29">
@@ -21264,13 +21399,13 @@
       </c>
       <c r="B84" s="30"/>
       <c r="C84" t="s" s="11">
-        <v>371</v>
-      </c>
-      <c r="D84" t="s" s="81">
-        <v>296</v>
+        <v>374</v>
+      </c>
+      <c r="D84" t="s" s="84">
+        <v>298</v>
       </c>
       <c r="E84" t="s" s="40">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -21288,9 +21423,10 @@
         <v>273</v>
       </c>
       <c r="N84" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
     </row>
     <row r="85" ht="15.35" customHeight="1">
       <c r="A85" s="29">
@@ -21298,13 +21434,13 @@
       </c>
       <c r="B85" s="30"/>
       <c r="C85" t="s" s="11">
-        <v>372</v>
-      </c>
-      <c r="D85" t="s" s="81">
-        <v>296</v>
+        <v>375</v>
+      </c>
+      <c r="D85" t="s" s="84">
+        <v>298</v>
       </c>
       <c r="E85" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -21322,9 +21458,10 @@
         <v>273</v>
       </c>
       <c r="N85" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
     </row>
     <row r="86" ht="15.35" customHeight="1">
       <c r="A86" s="29">
@@ -21332,13 +21469,13 @@
       </c>
       <c r="B86" s="40"/>
       <c r="C86" t="s" s="44">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D86" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E86" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
@@ -21356,9 +21493,10 @@
         <v>273</v>
       </c>
       <c r="N86" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
     </row>
     <row r="87" ht="15.35" customHeight="1">
       <c r="A87" s="29">
@@ -21366,13 +21504,13 @@
       </c>
       <c r="B87" s="40"/>
       <c r="C87" t="s" s="40">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D87" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E87" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -21390,9 +21528,10 @@
         <v>273</v>
       </c>
       <c r="N87" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
     </row>
     <row r="88" ht="15.35" customHeight="1">
       <c r="A88" s="29">
@@ -21400,13 +21539,13 @@
       </c>
       <c r="B88" s="40"/>
       <c r="C88" t="s" s="40">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D88" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E88" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
@@ -21417,16 +21556,17 @@
         <f>IF(D88=E88,H88,100-H88)</f>
         <v>40</v>
       </c>
-      <c r="J88" s="78"/>
+      <c r="J88" s="81"/>
       <c r="K88" s="64"/>
       <c r="L88" s="13"/>
       <c r="M88" s="58">
         <v>273</v>
       </c>
       <c r="N88" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" ht="15.35" customHeight="1">
       <c r="A89" s="29">
@@ -21434,13 +21574,13 @@
       </c>
       <c r="B89" s="40"/>
       <c r="C89" t="s" s="40">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D89" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E89" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
@@ -21463,9 +21603,10 @@
         <v>273</v>
       </c>
       <c r="N89" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
     </row>
     <row r="90" ht="15.35" customHeight="1">
       <c r="A90" s="29">
@@ -21473,13 +21614,13 @@
       </c>
       <c r="B90" s="40"/>
       <c r="C90" t="s" s="40">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D90" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E90" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
@@ -21497,9 +21638,10 @@
         <v>273</v>
       </c>
       <c r="N90" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" ht="15.35" customHeight="1">
       <c r="A91" s="29">
@@ -21507,13 +21649,13 @@
       </c>
       <c r="B91" s="40"/>
       <c r="C91" t="s" s="40">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D91" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E91" t="s" s="40">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
@@ -21531,9 +21673,10 @@
         <v>273</v>
       </c>
       <c r="N91" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
     </row>
     <row r="92" ht="15.35" customHeight="1">
       <c r="A92" s="29">
@@ -21541,7 +21684,7 @@
       </c>
       <c r="B92" s="40"/>
       <c r="C92" t="s" s="40">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
@@ -21556,9 +21699,10 @@
         <v>273</v>
       </c>
       <c r="N92" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
     </row>
     <row r="93" ht="15.35" customHeight="1">
       <c r="A93" s="29">
@@ -21566,13 +21710,13 @@
       </c>
       <c r="B93" s="40"/>
       <c r="C93" t="s" s="40">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D93" t="s" s="40">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E93" t="s" s="40">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F93" s="57">
         <v>40</v>
@@ -21581,7 +21725,7 @@
         <f>IF(D93=E93,F93,100-F93)</f>
         <v>40</v>
       </c>
-      <c r="H93" s="78"/>
+      <c r="H93" s="81"/>
       <c r="I93" s="34"/>
       <c r="J93" s="34"/>
       <c r="K93" s="64"/>
@@ -21590,11 +21734,12 @@
         <v>298</v>
       </c>
       <c r="N93" t="s" s="40">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O93" t="s" s="40">
-        <v>382</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="P93" s="40"/>
     </row>
     <row r="94" ht="15.35" customHeight="1">
       <c r="A94" s="29">
@@ -21602,15 +21747,15 @@
       </c>
       <c r="B94" s="40"/>
       <c r="C94" t="s" s="40">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D94" t="s" s="40">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E94" t="s" s="40">
-        <v>267</v>
-      </c>
-      <c r="F94" s="80">
+        <v>270</v>
+      </c>
+      <c r="F94" s="83">
         <v>27</v>
       </c>
       <c r="G94" s="35">
@@ -21626,9 +21771,10 @@
         <v>298</v>
       </c>
       <c r="N94" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
     </row>
     <row r="95" ht="15.35" customHeight="1">
       <c r="A95" s="29">
@@ -21636,13 +21782,13 @@
       </c>
       <c r="B95" s="40"/>
       <c r="C95" t="s" s="40">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D95" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E95" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F95" s="49">
         <v>25</v>
@@ -21660,9 +21806,10 @@
         <v>298</v>
       </c>
       <c r="N95" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
     </row>
     <row r="96" ht="15.35" customHeight="1">
       <c r="A96" s="29">
@@ -21670,13 +21817,13 @@
       </c>
       <c r="B96" s="40"/>
       <c r="C96" t="s" s="42">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D96" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E96" t="s" s="40">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F96" s="49">
         <v>20</v>
@@ -21694,9 +21841,10 @@
         <v>298</v>
       </c>
       <c r="N96" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
     </row>
     <row r="97" ht="15.35" customHeight="1">
       <c r="A97" s="29">
@@ -21706,8 +21854,8 @@
       <c r="C97" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="D97" t="s" s="81">
-        <v>386</v>
+      <c r="D97" t="s" s="84">
+        <v>389</v>
       </c>
       <c r="E97" t="s" s="40">
         <v>25</v>
@@ -21728,11 +21876,12 @@
         <v>273</v>
       </c>
       <c r="N97" t="s" s="40">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O97" t="s" s="40">
-        <v>388</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="P97" s="40"/>
     </row>
     <row r="98" ht="15.35" customHeight="1">
       <c r="A98" s="29">
@@ -21740,9 +21889,9 @@
       </c>
       <c r="B98" s="30"/>
       <c r="C98" t="s" s="11">
-        <v>389</v>
-      </c>
-      <c r="D98" s="81"/>
+        <v>392</v>
+      </c>
+      <c r="D98" s="84"/>
       <c r="E98" s="40"/>
       <c r="F98" s="48"/>
       <c r="G98" s="35">
@@ -21758,11 +21907,12 @@
         <v>308</v>
       </c>
       <c r="N98" t="s" s="40">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O98" t="s" s="40">
-        <v>391</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="P98" s="40"/>
     </row>
     <row r="99" ht="15.35" customHeight="1">
       <c r="A99" s="29">
@@ -21770,9 +21920,9 @@
       </c>
       <c r="B99" s="30"/>
       <c r="C99" t="s" s="11">
-        <v>392</v>
-      </c>
-      <c r="D99" s="81"/>
+        <v>395</v>
+      </c>
+      <c r="D99" s="84"/>
       <c r="E99" s="40"/>
       <c r="F99" s="48"/>
       <c r="G99" s="35">
@@ -21788,9 +21938,10 @@
         <v>308</v>
       </c>
       <c r="N99" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
     </row>
     <row r="100" ht="15.35" customHeight="1">
       <c r="A100" s="29">
@@ -21798,9 +21949,9 @@
       </c>
       <c r="B100" s="30"/>
       <c r="C100" t="s" s="11">
-        <v>393</v>
-      </c>
-      <c r="D100" s="81"/>
+        <v>396</v>
+      </c>
+      <c r="D100" s="84"/>
       <c r="E100" s="40"/>
       <c r="F100" s="48"/>
       <c r="G100" s="35">
@@ -21816,11 +21967,12 @@
         <v>273</v>
       </c>
       <c r="N100" t="s" s="40">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O100" t="s" s="40">
-        <v>395</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="P100" s="40"/>
     </row>
     <row r="101" ht="15.35" customHeight="1">
       <c r="A101" s="29">
@@ -21828,9 +21980,9 @@
       </c>
       <c r="B101" s="30"/>
       <c r="C101" t="s" s="11">
-        <v>396</v>
-      </c>
-      <c r="D101" s="81"/>
+        <v>399</v>
+      </c>
+      <c r="D101" s="84"/>
       <c r="E101" s="40"/>
       <c r="F101" s="48"/>
       <c r="G101" s="34"/>
@@ -21845,21 +21997,22 @@
         <v>195</v>
       </c>
       <c r="N101" t="s" s="40">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O101" t="s" s="40">
-        <v>398</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="P101" s="40"/>
     </row>
     <row r="102" ht="15.35" customHeight="1">
       <c r="A102" s="29">
         <v>101</v>
       </c>
-      <c r="B102" s="83"/>
-      <c r="C102" t="s" s="84">
-        <v>399</v>
-      </c>
-      <c r="D102" s="81"/>
+      <c r="B102" s="86"/>
+      <c r="C102" t="s" s="87">
+        <v>402</v>
+      </c>
+      <c r="D102" s="84"/>
       <c r="E102" s="40"/>
       <c r="F102" s="48"/>
       <c r="G102" s="35">
@@ -21874,21 +22027,22 @@
         <v>273</v>
       </c>
       <c r="N102" t="s" s="40">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O102" t="s" s="40">
-        <v>401</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="P102" s="40"/>
     </row>
     <row r="103" ht="15.35" customHeight="1">
       <c r="A103" s="29">
         <v>102</v>
       </c>
-      <c r="B103" s="85"/>
-      <c r="C103" t="s" s="84">
-        <v>402</v>
-      </c>
-      <c r="D103" s="81"/>
+      <c r="B103" s="88"/>
+      <c r="C103" t="s" s="87">
+        <v>405</v>
+      </c>
+      <c r="D103" s="84"/>
       <c r="E103" s="40"/>
       <c r="F103" s="48"/>
       <c r="G103" s="34"/>
@@ -21905,21 +22059,22 @@
         <v>273</v>
       </c>
       <c r="N103" t="s" s="40">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="O103" t="s" s="40">
-        <v>404</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="P103" s="40"/>
     </row>
     <row r="104" ht="15.35" customHeight="1">
       <c r="A104" s="29">
         <v>103</v>
       </c>
       <c r="B104" s="30"/>
-      <c r="C104" t="s" s="84">
-        <v>405</v>
-      </c>
-      <c r="D104" s="81"/>
+      <c r="C104" t="s" s="87">
+        <v>408</v>
+      </c>
+      <c r="D104" s="84"/>
       <c r="E104" s="40"/>
       <c r="F104" s="48"/>
       <c r="G104" s="34"/>
@@ -21937,21 +22092,22 @@
         <v>273</v>
       </c>
       <c r="N104" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
     </row>
     <row r="105" ht="15.35" customHeight="1">
       <c r="A105" s="29">
         <v>104</v>
       </c>
       <c r="B105" t="s" s="30">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C105" t="s" s="31">
         <v>137</v>
       </c>
-      <c r="D105" s="81"/>
+      <c r="D105" s="84"/>
       <c r="E105" s="40"/>
       <c r="F105" s="48"/>
       <c r="G105" s="34"/>
@@ -21967,11 +22123,12 @@
         <v>293</v>
       </c>
       <c r="N105" t="s" s="40">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O105" t="s" s="40">
-        <v>407</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="P105" s="40"/>
     </row>
     <row r="106" ht="15.35" customHeight="1">
       <c r="A106" s="29">
@@ -21979,7 +22136,7 @@
       </c>
       <c r="B106" s="40"/>
       <c r="C106" t="s" s="40">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
@@ -21997,9 +22154,10 @@
         <v>293</v>
       </c>
       <c r="N106" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
     </row>
     <row r="107" ht="15.35" customHeight="1">
       <c r="A107" s="29">
@@ -22007,7 +22165,7 @@
       </c>
       <c r="B107" s="40"/>
       <c r="C107" t="s" s="40">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="40"/>
@@ -22025,9 +22183,10 @@
         <v>293</v>
       </c>
       <c r="N107" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
     </row>
     <row r="108" ht="15.35" customHeight="1">
       <c r="A108" s="29">
@@ -22035,7 +22194,7 @@
       </c>
       <c r="B108" s="40"/>
       <c r="C108" t="s" s="40">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="40"/>
@@ -22053,9 +22212,10 @@
         <v>293</v>
       </c>
       <c r="N108" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
     </row>
     <row r="109" ht="15.35" customHeight="1">
       <c r="A109" s="29">
@@ -22063,7 +22223,7 @@
       </c>
       <c r="B109" s="40"/>
       <c r="C109" t="s" s="40">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="40"/>
@@ -22081,9 +22241,10 @@
         <v>293</v>
       </c>
       <c r="N109" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
     </row>
     <row r="110" ht="15.35" customHeight="1">
       <c r="A110" s="29">
@@ -22091,7 +22252,7 @@
       </c>
       <c r="B110" s="40"/>
       <c r="C110" t="s" s="42">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
@@ -22109,9 +22270,10 @@
         <v>293</v>
       </c>
       <c r="N110" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
     </row>
     <row r="111" ht="15.35" customHeight="1">
       <c r="A111" s="29">
@@ -22121,7 +22283,7 @@
       <c r="C111" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="D111" s="81"/>
+      <c r="D111" s="84"/>
       <c r="E111" s="40"/>
       <c r="F111" s="48"/>
       <c r="G111" s="34"/>
@@ -22136,11 +22298,12 @@
         <v>273</v>
       </c>
       <c r="N111" t="s" s="6">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O111" t="s" s="11">
-        <v>412</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="P111" s="11"/>
     </row>
     <row r="112" ht="15.35" customHeight="1">
       <c r="A112" s="29">
@@ -22150,7 +22313,7 @@
       <c r="C112" t="s" s="11">
         <v>184</v>
       </c>
-      <c r="D112" s="81"/>
+      <c r="D112" s="84"/>
       <c r="E112" s="40"/>
       <c r="F112" s="48"/>
       <c r="G112" s="34"/>
@@ -22165,9 +22328,10 @@
         <v>273</v>
       </c>
       <c r="N112" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O112" s="44"/>
+      <c r="P112" s="44"/>
     </row>
     <row r="113" ht="15.35" customHeight="1">
       <c r="A113" s="29">
@@ -22177,7 +22341,7 @@
       <c r="C113" t="s" s="11">
         <v>187</v>
       </c>
-      <c r="D113" s="81"/>
+      <c r="D113" s="84"/>
       <c r="E113" s="40"/>
       <c r="F113" s="48"/>
       <c r="G113" s="34"/>
@@ -22192,9 +22356,10 @@
         <v>273</v>
       </c>
       <c r="N113" t="s" s="40">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O113" s="42"/>
+      <c r="P113" s="42"/>
     </row>
     <row r="114" ht="15.35" customHeight="1">
       <c r="A114" s="29">
@@ -22202,7 +22367,7 @@
       </c>
       <c r="B114" s="40"/>
       <c r="C114" t="s" s="43">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="40"/>
@@ -22219,9 +22384,10 @@
         <v>273</v>
       </c>
       <c r="N114" t="s" s="40">
-        <v>270</v>
-      </c>
-      <c r="O114" s="86"/>
+        <v>273</v>
+      </c>
+      <c r="O114" s="41"/>
+      <c r="P114" s="89"/>
     </row>
     <row r="115" ht="15.35" customHeight="1">
       <c r="A115" s="29">
@@ -22229,9 +22395,9 @@
       </c>
       <c r="B115" s="30"/>
       <c r="C115" t="s" s="11">
-        <v>413</v>
-      </c>
-      <c r="D115" s="81"/>
+        <v>416</v>
+      </c>
+      <c r="D115" s="84"/>
       <c r="E115" s="40"/>
       <c r="F115" s="48"/>
       <c r="G115" s="34"/>
@@ -22246,11 +22412,12 @@
         <v>273</v>
       </c>
       <c r="N115" t="s" s="5">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="O115" t="s" s="11">
-        <v>415</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="P115" s="11"/>
     </row>
     <row r="116" ht="15.35" customHeight="1">
       <c r="A116" s="29">
@@ -22260,7 +22427,7 @@
       <c r="C116" t="s" s="11">
         <v>46</v>
       </c>
-      <c r="D116" s="81"/>
+      <c r="D116" s="84"/>
       <c r="E116" s="40"/>
       <c r="F116" s="48"/>
       <c r="G116" s="34"/>
@@ -22275,11 +22442,12 @@
         <v>273</v>
       </c>
       <c r="N116" t="s" s="11">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="O116" t="s" s="11">
-        <v>417</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="P116" s="11"/>
     </row>
     <row r="117" ht="15.35" customHeight="1">
       <c r="A117" s="29">
@@ -22287,9 +22455,9 @@
       </c>
       <c r="B117" s="30"/>
       <c r="C117" t="s" s="31">
-        <v>418</v>
-      </c>
-      <c r="D117" s="81"/>
+        <v>421</v>
+      </c>
+      <c r="D117" s="84"/>
       <c r="E117" s="40"/>
       <c r="F117" s="48"/>
       <c r="G117" s="34"/>
@@ -22304,21 +22472,22 @@
         <v>195</v>
       </c>
       <c r="N117" t="s" s="11">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="O117" t="s" s="11">
-        <v>420</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="P117" s="11"/>
     </row>
     <row r="118" ht="15.35" customHeight="1">
       <c r="A118" s="29">
         <v>117</v>
       </c>
-      <c r="B118" s="83"/>
+      <c r="B118" s="86"/>
       <c r="C118" t="s" s="5">
-        <v>421</v>
-      </c>
-      <c r="D118" s="81"/>
+        <v>424</v>
+      </c>
+      <c r="D118" s="84"/>
       <c r="E118" s="40"/>
       <c r="F118" s="48"/>
       <c r="G118" s="34"/>
@@ -22334,11 +22503,12 @@
         <v>195</v>
       </c>
       <c r="N118" t="s" s="11">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="O118" t="s" s="11">
-        <v>423</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="P118" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
